--- a/Python_Jules/Exemple.xlsx
+++ b/Python_Jules/Exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etude\Etude\GL\GenieLogiciel\genieLogiciel\Python_Jules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76076B9-83AA-49F2-9760-10B0B8DFB2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE24CB-D819-4B06-A3DA-D751C0A2155E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="187">
   <si>
     <t>categorie</t>
   </si>
@@ -108,13 +108,499 @@
   </si>
   <si>
     <t>TechnicienPrenom</t>
+  </si>
+  <si>
+    <t>rue jean martin</t>
+  </si>
+  <si>
+    <t>marseille</t>
+  </si>
+  <si>
+    <t>Materiel</t>
+  </si>
+  <si>
+    <t>j'ai besoin de faire réparer mon ordinateur</t>
+  </si>
+  <si>
+    <t>Non resolu</t>
+  </si>
+  <si>
+    <t>DE SOUSA</t>
+  </si>
+  <si>
+    <t>Lionel</t>
+  </si>
+  <si>
+    <t>VIGLIONE</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>route de nontron</t>
+  </si>
+  <si>
+    <t>Mareuil</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>panne de chaudière</t>
+  </si>
+  <si>
+    <t>Ouvert</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>PAPA</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>TERZIAN</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Avenue gabriel péri</t>
+  </si>
+  <si>
+    <t>Ste Geneviève des bois</t>
+  </si>
+  <si>
+    <t>Etude de plan</t>
+  </si>
+  <si>
+    <t>LEVY</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>GIRAUT</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>traverse des faienciers</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>j'ai besoin de faire réparer ma machine à laver le linge</t>
+  </si>
+  <si>
+    <t>GONTIER</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>CORENTI</t>
+  </si>
+  <si>
+    <t>Antoine</t>
+  </si>
+  <si>
+    <t>avenue revestel</t>
+  </si>
+  <si>
+    <t>Cassis</t>
+  </si>
+  <si>
+    <t>Panne de ballon d'eau chaude</t>
+  </si>
+  <si>
+    <t>AZEMARD</t>
+  </si>
+  <si>
+    <t>Christophe</t>
+  </si>
+  <si>
+    <t>ARZALAOUI</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>avenue du serpolet</t>
+  </si>
+  <si>
+    <t>La Ciotat</t>
+  </si>
+  <si>
+    <t>Etude de sol</t>
+  </si>
+  <si>
+    <t>BOLADO</t>
+  </si>
+  <si>
+    <t>Faustino</t>
+  </si>
+  <si>
+    <t>SOLINAS</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>rue marcel pagnol</t>
+  </si>
+  <si>
+    <t>Allauch</t>
+  </si>
+  <si>
+    <t>j'ai besoin de louer un tractopelle</t>
+  </si>
+  <si>
+    <t>ROUX</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>POIRIER</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>chemin de la garrigue</t>
+  </si>
+  <si>
+    <t>Cadolive</t>
+  </si>
+  <si>
+    <t>panne de radiateur</t>
+  </si>
+  <si>
+    <t>HERPE</t>
+  </si>
+  <si>
+    <t>Céline</t>
+  </si>
+  <si>
+    <t>LAPINA</t>
+  </si>
+  <si>
+    <t>Fabrice</t>
+  </si>
+  <si>
+    <t>clos de la vigne</t>
+  </si>
+  <si>
+    <t>Gémenos</t>
+  </si>
+  <si>
+    <t>j'ai besoin d'une porte de garage</t>
+  </si>
+  <si>
+    <t>non resolu</t>
+  </si>
+  <si>
+    <t>demande</t>
+  </si>
+  <si>
+    <t>MAANANE</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLITO </t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>06200</t>
+  </si>
+  <si>
+    <t>rue des gravier</t>
+  </si>
+  <si>
+    <t>NICE</t>
+  </si>
+  <si>
+    <t>panne du réseau de chauffage au gaz</t>
+  </si>
+  <si>
+    <t>POMMIER</t>
+  </si>
+  <si>
+    <t>Glady</t>
+  </si>
+  <si>
+    <t>ZIEMMIAK</t>
+  </si>
+  <si>
+    <t>Stanislas</t>
+  </si>
+  <si>
+    <t>83000</t>
+  </si>
+  <si>
+    <t>rue des miozotis</t>
+  </si>
+  <si>
+    <t>TOULON</t>
+  </si>
+  <si>
+    <t>besoin de 10 fenètres</t>
+  </si>
+  <si>
+    <t>CANONEIRO</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
+    <t>GLAVIC</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>44340</t>
+  </si>
+  <si>
+    <t>route de la villa mahaud</t>
+  </si>
+  <si>
+    <t>PORNICHET</t>
+  </si>
+  <si>
+    <t>VIDAL</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>TRICHET</t>
+  </si>
+  <si>
+    <t>Fabien</t>
+  </si>
+  <si>
+    <t>91700</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>panne de chaudière fuel</t>
+  </si>
+  <si>
+    <t>DOUMALIN</t>
+  </si>
+  <si>
+    <t>Jeanine</t>
+  </si>
+  <si>
+    <t>Reynaud</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>rue des Comtesses</t>
+  </si>
+  <si>
+    <t>Chartres</t>
+  </si>
+  <si>
+    <t>Panne du téléviseur</t>
+  </si>
+  <si>
+    <t>en cours</t>
+  </si>
+  <si>
+    <t>DEVROE</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>LAYANI</t>
+  </si>
+  <si>
+    <t>Ichoua</t>
+  </si>
+  <si>
+    <t>94700</t>
+  </si>
+  <si>
+    <t>rue de Reims</t>
+  </si>
+  <si>
+    <t>MAISON ALFORT</t>
+  </si>
+  <si>
+    <t>J'ai besoin d'une porte d'entrée</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>Patrice</t>
+  </si>
+  <si>
+    <t>TEXEIRA</t>
+  </si>
+  <si>
+    <t>Abilio</t>
+  </si>
+  <si>
+    <t>94230</t>
+  </si>
+  <si>
+    <t>rue de la gare</t>
+  </si>
+  <si>
+    <t>CACHAN</t>
+  </si>
+  <si>
+    <t>Panne de chaudière</t>
+  </si>
+  <si>
+    <t>GRELET</t>
+  </si>
+  <si>
+    <t>LOUARMA</t>
+  </si>
+  <si>
+    <t>SaÏd</t>
+  </si>
+  <si>
+    <t>95270</t>
+  </si>
+  <si>
+    <t>rue des azalées</t>
+  </si>
+  <si>
+    <t>LUZARCHES</t>
+  </si>
+  <si>
+    <t>j'ai besoin d'une cloture</t>
+  </si>
+  <si>
+    <t>non resoludemande</t>
+  </si>
+  <si>
+    <t>HELAINE</t>
+  </si>
+  <si>
+    <t>Philippe</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>Fausto</t>
+  </si>
+  <si>
+    <t>83210</t>
+  </si>
+  <si>
+    <t>rue peirex</t>
+  </si>
+  <si>
+    <t>BELGENTIER</t>
+  </si>
+  <si>
+    <t>etude de plan</t>
+  </si>
+  <si>
+    <t>LACAMPAGNE</t>
+  </si>
+  <si>
+    <t>JOUSSET</t>
+  </si>
+  <si>
+    <t>avenue henri matisse</t>
+  </si>
+  <si>
+    <t>VENCE</t>
+  </si>
+  <si>
+    <t>Panne du ballon d'eau chaude</t>
+  </si>
+  <si>
+    <t>MOTHU</t>
+  </si>
+  <si>
+    <t>Gisèle</t>
+  </si>
+  <si>
+    <t>LUMETA</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>91170</t>
+  </si>
+  <si>
+    <t>rue francoeur</t>
+  </si>
+  <si>
+    <t>VIRY CHATILLON</t>
+  </si>
+  <si>
+    <t>Remplacement du portail</t>
+  </si>
+  <si>
+    <t>SABATIER</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>KRIVOCAPIC</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>91070</t>
+  </si>
+  <si>
+    <t>rue du maréchal leclerc</t>
+  </si>
+  <si>
+    <t>BONDOUFLE</t>
+  </si>
+  <si>
+    <t>non résolu</t>
+  </si>
+  <si>
+    <t>TOUBLANC</t>
+  </si>
+  <si>
+    <t>Adeline</t>
+  </si>
+  <si>
+    <t>NOTARI</t>
+  </si>
+  <si>
+    <t>Jean Philippe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +608,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,17 +638,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutre" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{9202294C-F6D7-46A4-A9CC-51B99D8CE03E}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -425,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +1071,907 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>13000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>24240</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>91700</v>
+      </c>
+      <c r="B5" s="1">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>13000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>13260</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>13600</v>
+      </c>
+      <c r="B8" s="1">
+        <v>145</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>13190</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>13950</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>13240</v>
+      </c>
+      <c r="B11" s="1">
+        <v>156</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1">
+        <v>157</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1">
+        <v>317</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="1">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="1">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="1">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python_Jules/Exemple.xlsx
+++ b/Python_Jules/Exemple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etude\Etude\GL\GenieLogiciel\genieLogiciel\Python_Jules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BE24CB-D819-4B06-A3DA-D751C0A2155E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493326B6-1439-4E9D-95F5-3E55283D1B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="3930" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="331">
   <si>
     <t>categorie</t>
   </si>
@@ -594,6 +594,438 @@
   </si>
   <si>
     <t>Jean Philippe</t>
+  </si>
+  <si>
+    <t>Rue des Petits Pères</t>
+  </si>
+  <si>
+    <t>PLACE DE LA BANQUE</t>
+  </si>
+  <si>
+    <t>Rue Saint-Honoré</t>
+  </si>
+  <si>
+    <t>Place du Palais</t>
+  </si>
+  <si>
+    <t>Avenue des Champs Elysees</t>
+  </si>
+  <si>
+    <t>Rue Blonduelle</t>
+  </si>
+  <si>
+    <t>Place des Victoires</t>
+  </si>
+  <si>
+    <t>Champs de Mars</t>
+  </si>
+  <si>
+    <t>Chemin des oiseaux</t>
+  </si>
+  <si>
+    <t>Un petit chemin</t>
+  </si>
+  <si>
+    <t>Rue Grossin</t>
+  </si>
+  <si>
+    <t>Allée des orangers</t>
+  </si>
+  <si>
+    <t>Chemin aux noisettes</t>
+  </si>
+  <si>
+    <t>Rue Louis de Broglie</t>
+  </si>
+  <si>
+    <t>Rue de la Vallée</t>
+  </si>
+  <si>
+    <t>Rue des Bons Pères</t>
+  </si>
+  <si>
+    <t>Rue Sacos</t>
+  </si>
+  <si>
+    <t>Avenue Sans-Retour</t>
+  </si>
+  <si>
+    <t>Impasse des Bons amis</t>
+  </si>
+  <si>
+    <t>Père La Chaise</t>
+  </si>
+  <si>
+    <t>Rue Ricolotte</t>
+  </si>
+  <si>
+    <t>Trifouillis-les-Oies</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Pontoise</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Calais</t>
+  </si>
+  <si>
+    <t>Caux</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Rouen</t>
+  </si>
+  <si>
+    <t>Evry</t>
+  </si>
+  <si>
+    <t>Mont-Saint-Michel</t>
+  </si>
+  <si>
+    <t>Evreux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Quimper</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Saint-Malo</t>
+  </si>
+  <si>
+    <t>Saint-Nazaire</t>
+  </si>
+  <si>
+    <t>Vannes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Le monte-charge a besoin d'un contrôle</t>
+  </si>
+  <si>
+    <t>Il faut un plan pour installer des chaussettes à la cheminée</t>
+  </si>
+  <si>
+    <t>Le Groenland est trop froid pour mes rennes</t>
+  </si>
+  <si>
+    <t>Le porte-bagage est cassé</t>
+  </si>
+  <si>
+    <t>Il faut vérifier mon cours de biologie</t>
+  </si>
+  <si>
+    <t>Le four n'est pas assez chaud pour les pizzas</t>
+  </si>
+  <si>
+    <t>Le premier étage de la fusée a explosé</t>
+  </si>
+  <si>
+    <t>Il me faut une maquette à l'échelle 1:1 pour mon projet</t>
+  </si>
+  <si>
+    <t>Le brumisateur est en panne</t>
+  </si>
+  <si>
+    <t>J'ai perdu la clef de démarrage de la tondeuse</t>
+  </si>
+  <si>
+    <t>J'ai besoin des informations sur les délais</t>
+  </si>
+  <si>
+    <t>Le thermomètre indique des valeurs excessives</t>
+  </si>
+  <si>
+    <t>La lumière ne s'allume plus dans l'habitacle</t>
+  </si>
+  <si>
+    <t>Il faut contrôler les installations</t>
+  </si>
+  <si>
+    <t>Contrôle de la chambre froide</t>
+  </si>
+  <si>
+    <t>Les prises électriques doivent être vérifiées</t>
+  </si>
+  <si>
+    <t>L'installation doit être avancée d'une semaine</t>
+  </si>
+  <si>
+    <t>Le ventilateur n'est plus assezpuissant</t>
+  </si>
+  <si>
+    <t>Les outils ne sont plus aux normes</t>
+  </si>
+  <si>
+    <t>Travaux préparatoire à la mise aux normes</t>
+  </si>
+  <si>
+    <t>Le radiateur doit être agrandi</t>
+  </si>
+  <si>
+    <t>Matalino</t>
+  </si>
+  <si>
+    <t>Nandor</t>
+  </si>
+  <si>
+    <t>Tira</t>
+  </si>
+  <si>
+    <t>Durion</t>
+  </si>
+  <si>
+    <t>Lézard</t>
+  </si>
+  <si>
+    <t>Neyfer</t>
+  </si>
+  <si>
+    <t>Bellini</t>
+  </si>
+  <si>
+    <t>Megara</t>
+  </si>
+  <si>
+    <t>Espochi</t>
+  </si>
+  <si>
+    <t>Natanael</t>
+  </si>
+  <si>
+    <t>Farhadis</t>
+  </si>
+  <si>
+    <t>Charus</t>
+  </si>
+  <si>
+    <t>Monnier</t>
+  </si>
+  <si>
+    <t>Anatole</t>
+  </si>
+  <si>
+    <t>Ribaude</t>
+  </si>
+  <si>
+    <t>Gonstand</t>
+  </si>
+  <si>
+    <t>Sker</t>
+  </si>
+  <si>
+    <t>Smara</t>
+  </si>
+  <si>
+    <t>Zerua</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Vonari</t>
+  </si>
+  <si>
+    <t>Yashar</t>
+  </si>
+  <si>
+    <t>Praefectis</t>
+  </si>
+  <si>
+    <t>Lucio</t>
+  </si>
+  <si>
+    <t>Ragever</t>
+  </si>
+  <si>
+    <t>Eltator</t>
+  </si>
+  <si>
+    <t>Barrett</t>
+  </si>
+  <si>
+    <t>Séraphin</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Patchole</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Hikari</t>
+  </si>
+  <si>
+    <t>Aeris</t>
+  </si>
+  <si>
+    <t>Dironiil</t>
+  </si>
+  <si>
+    <t>Noraz</t>
+  </si>
+  <si>
+    <t>Linden</t>
+  </si>
+  <si>
+    <t>Lynni</t>
+  </si>
+  <si>
+    <t>FrancheBrise</t>
+  </si>
+  <si>
+    <t>Uth</t>
+  </si>
+  <si>
+    <t>Bonheur</t>
+  </si>
+  <si>
+    <t>Gontrand</t>
+  </si>
+  <si>
+    <t>Sinac</t>
+  </si>
+  <si>
+    <t>Mistaur</t>
+  </si>
+  <si>
+    <t>De Beaufort</t>
+  </si>
+  <si>
+    <t>Hildegarde</t>
+  </si>
+  <si>
+    <t>Depère</t>
+  </si>
+  <si>
+    <t>Valef</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>Gwylonna</t>
+  </si>
+  <si>
+    <t>Altaaraen</t>
+  </si>
+  <si>
+    <t>Qeur</t>
+  </si>
+  <si>
+    <t>Syronis</t>
+  </si>
+  <si>
+    <t>Quartus</t>
+  </si>
+  <si>
+    <t>Larrelier</t>
+  </si>
+  <si>
+    <t>Arwen</t>
+  </si>
+  <si>
+    <t>Viltis</t>
+  </si>
+  <si>
+    <t>Yenova</t>
+  </si>
+  <si>
+    <t>Staende</t>
+  </si>
+  <si>
+    <t>Dragil</t>
+  </si>
+  <si>
+    <t>Aélios</t>
+  </si>
+  <si>
+    <t>Cairn</t>
+  </si>
+  <si>
+    <t>Iullius</t>
+  </si>
+  <si>
+    <t>Mondoré</t>
+  </si>
+  <si>
+    <t>Kielo</t>
+  </si>
+  <si>
+    <t>Nepheris</t>
+  </si>
+  <si>
+    <t>Sehlis</t>
+  </si>
+  <si>
+    <t>Detremblay</t>
+  </si>
+  <si>
+    <t>Cassandre</t>
+  </si>
+  <si>
+    <t>Mihra</t>
+  </si>
+  <si>
+    <t>Neshan</t>
+  </si>
+  <si>
+    <t>Aksaïnen</t>
+  </si>
+  <si>
+    <t>Bardan</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>Notaris</t>
+  </si>
+  <si>
+    <t>Théodôros</t>
+  </si>
+  <si>
+    <t>Ahrondor</t>
+  </si>
+  <si>
+    <t>Naro</t>
+  </si>
+  <si>
+    <t>Iadirus</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Tanguy</t>
+  </si>
+  <si>
+    <t>Gwendolynn</t>
   </si>
 </sst>
 </file>
@@ -959,16 +1391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
@@ -1972,6 +2405,867 @@
         <v>186</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>78240</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>252</v>
+      </c>
+      <c r="L24" t="s">
+        <v>250</v>
+      </c>
+      <c r="N24" t="s">
+        <v>291</v>
+      </c>
+      <c r="O24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>74160</v>
+      </c>
+      <c r="B25">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="N25" t="s">
+        <v>293</v>
+      </c>
+      <c r="O25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>93410</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N26" t="s">
+        <v>295</v>
+      </c>
+      <c r="O26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>52300</v>
+      </c>
+      <c r="B27">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="N27" t="s">
+        <v>297</v>
+      </c>
+      <c r="O27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>93470</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="N28" t="s">
+        <v>300</v>
+      </c>
+      <c r="O28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>51380</v>
+      </c>
+      <c r="B29">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="N29" t="s">
+        <v>301</v>
+      </c>
+      <c r="O29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>71670</v>
+      </c>
+      <c r="B30">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="N30" t="s">
+        <v>303</v>
+      </c>
+      <c r="O30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35620</v>
+      </c>
+      <c r="B31">
+        <v>874</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="N31" t="s">
+        <v>305</v>
+      </c>
+      <c r="O31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>82430</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="N32" t="s">
+        <v>307</v>
+      </c>
+      <c r="O32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13450</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>65020</v>
+      </c>
+      <c r="B34">
+        <v>615</v>
+      </c>
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="N34" t="s">
+        <v>310</v>
+      </c>
+      <c r="O34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34150</v>
+      </c>
+      <c r="B35">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>63510</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>129</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s">
+        <v>275</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>74620</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>276</v>
+      </c>
+      <c r="L37" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" t="s">
+        <v>316</v>
+      </c>
+      <c r="O37" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15720</v>
+      </c>
+      <c r="B38">
+        <v>456</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="N38" t="s">
+        <v>318</v>
+      </c>
+      <c r="O38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>48630</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s">
+        <v>280</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>49630</v>
+      </c>
+      <c r="B40">
+        <v>325</v>
+      </c>
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" t="s">
+        <v>282</v>
+      </c>
+      <c r="N40" t="s">
+        <v>310</v>
+      </c>
+      <c r="O40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35820</v>
+      </c>
+      <c r="B41">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" t="s">
+        <v>284</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>49320</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>285</v>
+      </c>
+      <c r="L42" t="s">
+        <v>286</v>
+      </c>
+      <c r="N42" t="s">
+        <v>325</v>
+      </c>
+      <c r="O42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>69520</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>287</v>
+      </c>
+      <c r="L43" t="s">
+        <v>288</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>64120</v>
+      </c>
+      <c r="B44">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+      <c r="N44" t="s">
+        <v>329</v>
+      </c>
+      <c r="O44" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Python_Jules/Exemple.xlsx
+++ b/Python_Jules/Exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etude\Etude\GL\GenieLogiciel\genieLogiciel\Python_Jules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493326B6-1439-4E9D-95F5-3E55283D1B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E2E49-5A75-4888-8200-D3DB78DE66F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="3930" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1532,18 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1575,14 +1579,20 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <f>J3+1</f>
+        <v>1</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1">
+        <f>M3+1</f>
+        <v>1</v>
+      </c>
       <c r="N4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1618,14 +1628,20 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <f t="shared" ref="J5:J44" si="0">J4+1</f>
+        <v>2</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M44" si="1">M4+1</f>
+        <v>2</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1661,14 +1677,20 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="N6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1704,14 +1726,20 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1747,14 +1775,20 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>70</v>
       </c>
@@ -1790,14 +1824,20 @@
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>77</v>
       </c>
@@ -1833,14 +1873,20 @@
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>82</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>84</v>
       </c>
@@ -1876,14 +1922,20 @@
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="1"/>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>93</v>
       </c>
@@ -1919,14 +1971,20 @@
       <c r="I12" s="1">
         <v>2</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>101</v>
       </c>
@@ -1962,14 +2020,20 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>107</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>109</v>
       </c>
@@ -2005,14 +2069,20 @@
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>114</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
       <c r="N14" s="1" t="s">
         <v>116</v>
       </c>
@@ -2048,14 +2118,20 @@
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>121</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>123</v>
       </c>
@@ -2091,14 +2167,20 @@
       <c r="I16" s="1">
         <v>3</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>130</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>132</v>
       </c>
@@ -2134,14 +2216,20 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>138</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>140</v>
       </c>
@@ -2177,14 +2265,20 @@
       <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>146</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>147</v>
       </c>
@@ -2218,14 +2312,20 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>154</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>156</v>
       </c>
@@ -2261,14 +2361,20 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>162</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>163</v>
       </c>
@@ -2304,14 +2410,20 @@
       <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>167</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>169</v>
       </c>
@@ -2347,14 +2459,20 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>177</v>
       </c>
@@ -2390,14 +2508,20 @@
       <c r="I23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>183</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>185</v>
       </c>
@@ -2433,11 +2557,19 @@
       <c r="I24">
         <v>1</v>
       </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="K24" t="s">
         <v>252</v>
       </c>
       <c r="L24" t="s">
         <v>250</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
         <v>291</v>
@@ -2474,11 +2606,19 @@
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="K25" t="s">
         <v>253</v>
       </c>
       <c r="L25" t="s">
         <v>251</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="N25" t="s">
         <v>293</v>
@@ -2515,11 +2655,19 @@
       <c r="I26">
         <v>1</v>
       </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="K26" t="s">
         <v>254</v>
       </c>
       <c r="L26" t="s">
         <v>255</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="N26" t="s">
         <v>295</v>
@@ -2556,11 +2704,19 @@
       <c r="I27">
         <v>2</v>
       </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="K27" t="s">
         <v>256</v>
       </c>
       <c r="L27" t="s">
         <v>257</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
         <v>297</v>
@@ -2597,11 +2753,19 @@
       <c r="I28">
         <v>2</v>
       </c>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
       <c r="K28" t="s">
         <v>258</v>
       </c>
       <c r="L28" t="s">
         <v>259</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="N28" t="s">
         <v>300</v>
@@ -2638,11 +2802,19 @@
       <c r="I29">
         <v>3</v>
       </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
       <c r="K29" t="s">
         <v>260</v>
       </c>
       <c r="L29" t="s">
         <v>261</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
         <v>301</v>
@@ -2679,11 +2851,19 @@
       <c r="I30">
         <v>3</v>
       </c>
+      <c r="J30" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="K30" t="s">
         <v>262</v>
       </c>
       <c r="L30" t="s">
         <v>263</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="N30" t="s">
         <v>303</v>
@@ -2720,11 +2900,19 @@
       <c r="I31">
         <v>1</v>
       </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="K31" t="s">
         <v>264</v>
       </c>
       <c r="L31" t="s">
         <v>265</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
         <v>305</v>
@@ -2761,11 +2949,19 @@
       <c r="I32">
         <v>1</v>
       </c>
+      <c r="J32" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="K32" t="s">
         <v>266</v>
       </c>
       <c r="L32" t="s">
         <v>267</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="N32" t="s">
         <v>307</v>
@@ -2802,11 +2998,19 @@
       <c r="I33">
         <v>1</v>
       </c>
+      <c r="J33" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="K33" t="s">
         <v>268</v>
       </c>
       <c r="L33" t="s">
         <v>269</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="N33" t="s">
         <v>307</v>
@@ -2843,11 +3047,19 @@
       <c r="I34">
         <v>2</v>
       </c>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="K34" t="s">
         <v>270</v>
       </c>
       <c r="L34" t="s">
         <v>271</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="N34" t="s">
         <v>310</v>
@@ -2884,11 +3096,19 @@
       <c r="I35">
         <v>1</v>
       </c>
+      <c r="J35" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="K35" t="s">
         <v>272</v>
       </c>
       <c r="L35" t="s">
         <v>273</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="N35" t="s">
         <v>312</v>
@@ -2925,11 +3145,19 @@
       <c r="I36">
         <v>3</v>
       </c>
+      <c r="J36" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="K36" t="s">
         <v>274</v>
       </c>
       <c r="L36" t="s">
         <v>275</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="N36" t="s">
         <v>314</v>
@@ -2966,11 +3194,19 @@
       <c r="I37">
         <v>1</v>
       </c>
+      <c r="J37" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="K37" t="s">
         <v>276</v>
       </c>
       <c r="L37" t="s">
         <v>85</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
         <v>316</v>
@@ -3007,11 +3243,19 @@
       <c r="I38">
         <v>1</v>
       </c>
+      <c r="J38" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="K38" t="s">
         <v>277</v>
       </c>
       <c r="L38" t="s">
         <v>278</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="N38" t="s">
         <v>318</v>
@@ -3048,11 +3292,19 @@
       <c r="I39">
         <v>3</v>
       </c>
+      <c r="J39" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="K39" t="s">
         <v>279</v>
       </c>
       <c r="L39" t="s">
         <v>280</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="N39" t="s">
         <v>320</v>
@@ -3089,11 +3341,19 @@
       <c r="I40">
         <v>1</v>
       </c>
+      <c r="J40" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="K40" t="s">
         <v>281</v>
       </c>
       <c r="L40" t="s">
         <v>282</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="N40" t="s">
         <v>310</v>
@@ -3130,11 +3390,19 @@
       <c r="I41">
         <v>1</v>
       </c>
+      <c r="J41" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="K41" t="s">
         <v>283</v>
       </c>
       <c r="L41" t="s">
         <v>284</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="N41" t="s">
         <v>323</v>
@@ -3171,11 +3439,19 @@
       <c r="I42">
         <v>1</v>
       </c>
+      <c r="J42" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="K42" t="s">
         <v>285</v>
       </c>
       <c r="L42" t="s">
         <v>286</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="N42" t="s">
         <v>325</v>
@@ -3212,11 +3488,19 @@
       <c r="I43">
         <v>2</v>
       </c>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="K43" t="s">
         <v>287</v>
       </c>
       <c r="L43" t="s">
         <v>288</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="N43" t="s">
         <v>327</v>
@@ -3253,11 +3537,19 @@
       <c r="I44">
         <v>2</v>
       </c>
+      <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="K44" t="s">
         <v>289</v>
       </c>
       <c r="L44" t="s">
         <v>290</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="N44" t="s">
         <v>329</v>

--- a/Python_Jules/Exemple.xlsx
+++ b/Python_Jules/Exemple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Etude\Etude\GL\GenieLogiciel\genieLogiciel\Python_Jules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E2E49-5A75-4888-8200-D3DB78DE66F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB2F4A5-E7AA-42F1-ADF4-E463ED445401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3930" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple" sheetId="1" r:id="rId1"/>
@@ -1393,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>30</v>
@@ -1542,7 +1542,7 @@
         <v>31</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>32</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J4" s="1">
         <f>J3+1</f>
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>40</v>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="M4" s="1">
         <f>M3+1</f>
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>42</v>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:J44" si="0">J4+1</f>
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>47</v>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" ref="M5:M44" si="1">M4+1</f>
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>49</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>54</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>56</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>61</v>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>63</v>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>68</v>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>70</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>75</v>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>77</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>82</v>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>84</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>91</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>93</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>99</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>101</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>107</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>109</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>114</v>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>116</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>121</v>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>123</v>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>130</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>132</v>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>138</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>140</v>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>146</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>147</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>154</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>156</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>162</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>163</v>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>167</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>169</v>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>175</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>177</v>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>183</v>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>185</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="K24" t="s">
         <v>252</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="N24" t="s">
         <v>291</v>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
         <v>253</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="N25" t="s">
         <v>293</v>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s">
         <v>254</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="N26" t="s">
         <v>295</v>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="K27" t="s">
         <v>256</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="N27" t="s">
         <v>297</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="K28" t="s">
         <v>258</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="N28" t="s">
         <v>300</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="K29" t="s">
         <v>260</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="N29" t="s">
         <v>301</v>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
         <v>262</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="N30" t="s">
         <v>303</v>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s">
         <v>264</v>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="N31" t="s">
         <v>305</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="K32" t="s">
         <v>266</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="N32" t="s">
         <v>307</v>
@@ -3000,7 +3000,7 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="K33" t="s">
         <v>268</v>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="N33" t="s">
         <v>307</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
         <v>270</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="N34" t="s">
         <v>310</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="K35" t="s">
         <v>272</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="N35" t="s">
         <v>312</v>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s">
         <v>274</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="N36" t="s">
         <v>314</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s">
         <v>276</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="N37" t="s">
         <v>316</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="K38" t="s">
         <v>277</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="N38" t="s">
         <v>318</v>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="K39" t="s">
         <v>279</v>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="N39" t="s">
         <v>320</v>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="J40" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="K40" t="s">
         <v>281</v>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="N40" t="s">
         <v>310</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="J41" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="K41" t="s">
         <v>283</v>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="N41" t="s">
         <v>323</v>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="K42" t="s">
         <v>285</v>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="N42" t="s">
         <v>325</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K43" t="s">
         <v>287</v>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="N43" t="s">
         <v>327</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="K44" t="s">
         <v>289</v>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="N44" t="s">
         <v>329</v>
